--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4102,28 +4102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4617.185978913291</v>
+        <v>4824.340597145228</v>
       </c>
       <c r="AB2" t="n">
-        <v>6317.437552218783</v>
+        <v>6600.875639900492</v>
       </c>
       <c r="AC2" t="n">
-        <v>5714.510178814076</v>
+        <v>5970.897333215287</v>
       </c>
       <c r="AD2" t="n">
-        <v>4617185.978913291</v>
+        <v>4824340.597145228</v>
       </c>
       <c r="AE2" t="n">
-        <v>6317437.552218783</v>
+        <v>6600875.639900493</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.562798062200699e-07</v>
+        <v>8.442371021441918e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.30729166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5714510.178814076</v>
+        <v>5970897.333215287</v>
       </c>
     </row>
     <row r="3">
@@ -4208,28 +4208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2684.505572546404</v>
+        <v>2830.852779910542</v>
       </c>
       <c r="AB3" t="n">
-        <v>3673.058956385548</v>
+        <v>3873.297661884293</v>
       </c>
       <c r="AC3" t="n">
-        <v>3322.507364758595</v>
+        <v>3503.635569241321</v>
       </c>
       <c r="AD3" t="n">
-        <v>2684505.572546404</v>
+        <v>2830852.779910542</v>
       </c>
       <c r="AE3" t="n">
-        <v>3673058.956385548</v>
+        <v>3873297.661884293</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.46448910539001e-07</v>
+        <v>1.19609973414973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.50694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>3322507.364758595</v>
+        <v>3503635.569241321</v>
       </c>
     </row>
     <row r="4">
@@ -4314,28 +4314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2269.614107132216</v>
+        <v>2391.57020277755</v>
       </c>
       <c r="AB4" t="n">
-        <v>3105.386149686182</v>
+        <v>3272.251860071351</v>
       </c>
       <c r="AC4" t="n">
-        <v>2809.012453996849</v>
+        <v>2959.952735180347</v>
       </c>
       <c r="AD4" t="n">
-        <v>2269614.107132216</v>
+        <v>2391570.20277755</v>
       </c>
       <c r="AE4" t="n">
-        <v>3105386.149686182</v>
+        <v>3272251.860071351</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.210775482736602e-07</v>
+        <v>1.334182252813047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.07349537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>2809012.453996849</v>
+        <v>2959952.735180347</v>
       </c>
     </row>
     <row r="5">
@@ -4420,28 +4420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2058.691651359419</v>
+        <v>2192.672576400736</v>
       </c>
       <c r="AB5" t="n">
-        <v>2816.792740455645</v>
+        <v>3000.111352918422</v>
       </c>
       <c r="AC5" t="n">
-        <v>2547.961994699999</v>
+        <v>2713.784936078616</v>
       </c>
       <c r="AD5" t="n">
-        <v>2058691.651359419</v>
+        <v>2192672.576400736</v>
       </c>
       <c r="AE5" t="n">
-        <v>2816792.740455645</v>
+        <v>3000111.352918422</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.623044874866844e-07</v>
+        <v>1.410462884164704e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.9363425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>2547961.994699999</v>
+        <v>2713784.936078616</v>
       </c>
     </row>
     <row r="6">
@@ -4526,28 +4526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1950.301932884677</v>
+        <v>2072.087346820867</v>
       </c>
       <c r="AB6" t="n">
-        <v>2668.489145821607</v>
+        <v>2835.121321962372</v>
       </c>
       <c r="AC6" t="n">
-        <v>2413.812286992432</v>
+        <v>2564.541322112049</v>
       </c>
       <c r="AD6" t="n">
-        <v>1950301.932884677</v>
+        <v>2072087.346820866</v>
       </c>
       <c r="AE6" t="n">
-        <v>2668489.145821607</v>
+        <v>2835121.321962372</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.874082797718126e-07</v>
+        <v>1.456911472427241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.29976851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>2413812.286992432</v>
+        <v>2564541.322112049</v>
       </c>
     </row>
     <row r="7">
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1862.017902589295</v>
+        <v>1983.888567871505</v>
       </c>
       <c r="AB7" t="n">
-        <v>2547.695040754931</v>
+        <v>2714.443861548345</v>
       </c>
       <c r="AC7" t="n">
-        <v>2304.546601777727</v>
+        <v>2455.381149148057</v>
       </c>
       <c r="AD7" t="n">
-        <v>1862017.902589295</v>
+        <v>1983888.567871505</v>
       </c>
       <c r="AE7" t="n">
-        <v>2547695.040754931</v>
+        <v>2714443.861548345</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.043717210021398e-07</v>
+        <v>1.48829827997703e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.89178240740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>2304546.601777727</v>
+        <v>2455381.149148057</v>
       </c>
     </row>
     <row r="8">
@@ -4738,28 +4738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1799.090652225933</v>
+        <v>1920.961317508143</v>
       </c>
       <c r="AB8" t="n">
-        <v>2461.595200653424</v>
+        <v>2628.344021446837</v>
       </c>
       <c r="AC8" t="n">
-        <v>2226.664009573623</v>
+        <v>2377.498556943954</v>
       </c>
       <c r="AD8" t="n">
-        <v>1799090.652225933</v>
+        <v>1920961.317508143</v>
       </c>
       <c r="AE8" t="n">
-        <v>2461595.200653424</v>
+        <v>2628344.021446838</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.173437642959194e-07</v>
+        <v>1.512299956338635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2226664.009573624</v>
+        <v>2377498.556943954</v>
       </c>
     </row>
     <row r="9">
@@ -4844,28 +4844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1747.937357479877</v>
+        <v>1857.61251165696</v>
       </c>
       <c r="AB9" t="n">
-        <v>2391.605006057778</v>
+        <v>2541.667390529179</v>
       </c>
       <c r="AC9" t="n">
-        <v>2163.353580918331</v>
+        <v>2299.094222029661</v>
       </c>
       <c r="AD9" t="n">
-        <v>1747937.357479877</v>
+        <v>1857612.51165696</v>
       </c>
       <c r="AE9" t="n">
-        <v>2391605.006057778</v>
+        <v>2541667.390529179</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.268495935921708e-07</v>
+        <v>1.529888229299972e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.37962962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>2163353.580918331</v>
+        <v>2299094.222029661</v>
       </c>
     </row>
     <row r="10">
@@ -4950,28 +4950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1697.120265803671</v>
+        <v>1806.795419980754</v>
       </c>
       <c r="AB10" t="n">
-        <v>2322.074819334533</v>
+        <v>2472.137203805934</v>
       </c>
       <c r="AC10" t="n">
-        <v>2100.459257629722</v>
+        <v>2236.199898741052</v>
       </c>
       <c r="AD10" t="n">
-        <v>1697120.265803671</v>
+        <v>1806795.419980754</v>
       </c>
       <c r="AE10" t="n">
-        <v>2322074.819334533</v>
+        <v>2472137.203805934</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.354100917981873e-07</v>
+        <v>1.545727392243055e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.19155092592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>2100459.257629722</v>
+        <v>2236199.898741052</v>
       </c>
     </row>
     <row r="11">
@@ -5056,28 +5056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1657.677623401142</v>
+        <v>1767.352777578225</v>
       </c>
       <c r="AB11" t="n">
-        <v>2268.107655912819</v>
+        <v>2418.17004038422</v>
       </c>
       <c r="AC11" t="n">
-        <v>2051.642644541587</v>
+        <v>2187.383285652917</v>
       </c>
       <c r="AD11" t="n">
-        <v>1657677.623401142</v>
+        <v>1767352.777578224</v>
       </c>
       <c r="AE11" t="n">
-        <v>2268107.655912819</v>
+        <v>2418170.04038422</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.411871151274008e-07</v>
+        <v>1.556416397910166e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.06423611111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>2051642.644541587</v>
+        <v>2187383.285652917</v>
       </c>
     </row>
     <row r="12">
@@ -5162,28 +5162,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1600.032235675093</v>
+        <v>1721.817560102732</v>
       </c>
       <c r="AB12" t="n">
-        <v>2189.234693291018</v>
+        <v>2355.866746962234</v>
       </c>
       <c r="AC12" t="n">
-        <v>1980.297206773513</v>
+        <v>2131.026131111904</v>
       </c>
       <c r="AD12" t="n">
-        <v>1600032.235675093</v>
+        <v>1721817.560102732</v>
       </c>
       <c r="AE12" t="n">
-        <v>2189234.693291018</v>
+        <v>2355866.746962234</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.464914729114971e-07</v>
+        <v>1.566230848568149e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.95138888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>1980297.206773513</v>
+        <v>2131026.131111904</v>
       </c>
     </row>
     <row r="13">
@@ -5268,28 +5268,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1565.569430129899</v>
+        <v>1687.354754557538</v>
       </c>
       <c r="AB13" t="n">
-        <v>2142.081162352407</v>
+        <v>2308.713216023624</v>
       </c>
       <c r="AC13" t="n">
-        <v>1937.643942647286</v>
+        <v>2088.372866985678</v>
       </c>
       <c r="AD13" t="n">
-        <v>1565569.430129899</v>
+        <v>1687354.754557538</v>
       </c>
       <c r="AE13" t="n">
-        <v>2142081.162352407</v>
+        <v>2308713.216023624</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.503778340602408e-07</v>
+        <v>1.573421634198752e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.87037037037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>1937643.942647286</v>
+        <v>2088372.866985678</v>
       </c>
     </row>
     <row r="14">
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1567.750923293609</v>
+        <v>1689.536247721247</v>
       </c>
       <c r="AB14" t="n">
-        <v>2145.06597753968</v>
+        <v>2311.698031210897</v>
       </c>
       <c r="AC14" t="n">
-        <v>1940.343891262301</v>
+        <v>2091.072815600692</v>
       </c>
       <c r="AD14" t="n">
-        <v>1567750.923293609</v>
+        <v>1689536.247721247</v>
       </c>
       <c r="AE14" t="n">
-        <v>2145065.97753968</v>
+        <v>2311698.031210897</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.499051685151233e-07</v>
+        <v>1.572547079189624e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.87905092592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>1940343.891262301</v>
+        <v>2091072.815600692</v>
       </c>
     </row>
     <row r="15">
@@ -5480,28 +5480,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1571.786542993871</v>
+        <v>1693.571867421509</v>
       </c>
       <c r="AB15" t="n">
-        <v>2150.587690452554</v>
+        <v>2317.219744123771</v>
       </c>
       <c r="AC15" t="n">
-        <v>1945.338619644543</v>
+        <v>2096.067543982934</v>
       </c>
       <c r="AD15" t="n">
-        <v>1571786.542993871</v>
+        <v>1693571.867421509</v>
       </c>
       <c r="AE15" t="n">
-        <v>2150587.690452554</v>
+        <v>2317219.744123771</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.509030179992602e-07</v>
+        <v>1.574393361986671e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.8587962962963</v>
       </c>
       <c r="AH15" t="n">
-        <v>1945338.619644543</v>
+        <v>2096067.543982934</v>
       </c>
     </row>
   </sheetData>
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3428.697655508387</v>
+        <v>3604.982745298553</v>
       </c>
       <c r="AB2" t="n">
-        <v>4691.295395731764</v>
+        <v>4932.496432731961</v>
       </c>
       <c r="AC2" t="n">
-        <v>4243.564747437389</v>
+        <v>4461.74589599406</v>
       </c>
       <c r="AD2" t="n">
-        <v>3428697.655508386</v>
+        <v>3604982.745298553</v>
       </c>
       <c r="AE2" t="n">
-        <v>4691295.395731764</v>
+        <v>4932496.432731961</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.399813349921645e-07</v>
+        <v>1.029287761109708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4243564.747437389</v>
+        <v>4461745.89599406</v>
       </c>
     </row>
     <row r="3">
@@ -5883,28 +5883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2178.613359096331</v>
+        <v>2319.607222979798</v>
       </c>
       <c r="AB3" t="n">
-        <v>2980.874911553643</v>
+        <v>3173.788936329458</v>
       </c>
       <c r="AC3" t="n">
-        <v>2696.384393679178</v>
+        <v>2870.886974686804</v>
       </c>
       <c r="AD3" t="n">
-        <v>2178613.359096332</v>
+        <v>2319607.222979798</v>
       </c>
       <c r="AE3" t="n">
-        <v>2980874.911553643</v>
+        <v>3173788.936329458</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.165523520687852e-07</v>
+        <v>1.365859370286341e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.9386574074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>2696384.393679178</v>
+        <v>2870886.974686804</v>
       </c>
     </row>
     <row r="4">
@@ -5989,28 +5989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1888.819269265474</v>
+        <v>2006.371139246625</v>
       </c>
       <c r="AB4" t="n">
-        <v>2584.365853034127</v>
+        <v>2745.205507564831</v>
       </c>
       <c r="AC4" t="n">
-        <v>2337.717603200806</v>
+        <v>2483.206946842972</v>
       </c>
       <c r="AD4" t="n">
-        <v>1888819.269265474</v>
+        <v>2006371.139246625</v>
       </c>
       <c r="AE4" t="n">
-        <v>2584365.853034127</v>
+        <v>2745205.507564832</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.830517135770265e-07</v>
+        <v>1.492617416327017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.07523148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>2337717.603200805</v>
+        <v>2483206.946842972</v>
       </c>
     </row>
     <row r="5">
@@ -6095,28 +6095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1735.58269689994</v>
+        <v>1853.04922602652</v>
       </c>
       <c r="AB5" t="n">
-        <v>2374.700814403151</v>
+        <v>2535.423701811657</v>
       </c>
       <c r="AC5" t="n">
-        <v>2148.06270159004</v>
+        <v>2293.446422200267</v>
       </c>
       <c r="AD5" t="n">
-        <v>1735582.69689994</v>
+        <v>1853049.22602652</v>
       </c>
       <c r="AE5" t="n">
-        <v>2374700.814403151</v>
+        <v>2535423.701811657</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.190178715169412e-07</v>
+        <v>1.561174464103919e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.19270833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2148062.701590039</v>
+        <v>2293446.422200267</v>
       </c>
     </row>
     <row r="6">
@@ -6201,28 +6201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1632.591454836376</v>
+        <v>1750.143235308977</v>
       </c>
       <c r="AB6" t="n">
-        <v>2233.783653358858</v>
+        <v>2394.623185420014</v>
       </c>
       <c r="AC6" t="n">
-        <v>2020.594476617336</v>
+        <v>2166.083709478276</v>
       </c>
       <c r="AD6" t="n">
-        <v>1632591.454836376</v>
+        <v>1750143.235308977</v>
       </c>
       <c r="AE6" t="n">
-        <v>2233783.653358858</v>
+        <v>2394623.185420014</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.409126776344423e-07</v>
+        <v>1.602909343641821e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.69502314814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>2020594.476617336</v>
+        <v>2166083.709478276</v>
       </c>
     </row>
     <row r="7">
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1560.974767996698</v>
+        <v>1666.762925845133</v>
       </c>
       <c r="AB7" t="n">
-        <v>2135.794542919574</v>
+        <v>2280.538567531943</v>
       </c>
       <c r="AC7" t="n">
-        <v>1931.957309349798</v>
+        <v>2062.887167402676</v>
       </c>
       <c r="AD7" t="n">
-        <v>1560974.767996698</v>
+        <v>1666762.925845133</v>
       </c>
       <c r="AE7" t="n">
-        <v>2135794.542919574</v>
+        <v>2280538.567531943</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.557446430688784e-07</v>
+        <v>1.631181358812659e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.37094907407408</v>
       </c>
       <c r="AH7" t="n">
-        <v>1931957.309349798</v>
+        <v>2062887.167402676</v>
       </c>
     </row>
     <row r="8">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1498.061680034869</v>
+        <v>1603.849837883304</v>
       </c>
       <c r="AB8" t="n">
-        <v>2049.714080440646</v>
+        <v>2194.458105053016</v>
       </c>
       <c r="AC8" t="n">
-        <v>1854.09224539517</v>
+        <v>1985.022103448049</v>
       </c>
       <c r="AD8" t="n">
-        <v>1498061.680034869</v>
+        <v>1603849.837883304</v>
       </c>
       <c r="AE8" t="n">
-        <v>2049714.080440647</v>
+        <v>2194458.105053016</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.674254949677933e-07</v>
+        <v>1.653446865265882e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.12210648148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>1854092.245395171</v>
+        <v>1985022.103448049</v>
       </c>
     </row>
     <row r="9">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1431.571872188175</v>
+        <v>1549.038311806204</v>
       </c>
       <c r="AB9" t="n">
-        <v>1958.7397920215</v>
+        <v>2119.462556960458</v>
       </c>
       <c r="AC9" t="n">
-        <v>1771.800415379532</v>
+        <v>1917.184025208533</v>
       </c>
       <c r="AD9" t="n">
-        <v>1431571.872188175</v>
+        <v>1549038.311806204</v>
       </c>
       <c r="AE9" t="n">
-        <v>1958739.7920215</v>
+        <v>2119462.556960458</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.747599833694376e-07</v>
+        <v>1.667427532108604e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.97164351851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>1771800.415379532</v>
+        <v>1917184.025208533</v>
       </c>
     </row>
     <row r="10">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1417.291391935164</v>
+        <v>1534.757831553193</v>
       </c>
       <c r="AB10" t="n">
-        <v>1939.200608929006</v>
+        <v>2099.923373867965</v>
       </c>
       <c r="AC10" t="n">
-        <v>1754.12602449797</v>
+        <v>1899.509634326971</v>
       </c>
       <c r="AD10" t="n">
-        <v>1417291.391935164</v>
+        <v>1534757.831553193</v>
       </c>
       <c r="AE10" t="n">
-        <v>1939200.608929006</v>
+        <v>2099923.373867964</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.774221310115158e-07</v>
+        <v>1.672501996370036e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1754126.02449797</v>
+        <v>1899509.634326971</v>
       </c>
     </row>
     <row r="11">
@@ -6731,28 +6731,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1421.110127196861</v>
+        <v>1538.576566814891</v>
       </c>
       <c r="AB11" t="n">
-        <v>1944.42557098477</v>
+        <v>2105.148335923728</v>
       </c>
       <c r="AC11" t="n">
-        <v>1758.852323508412</v>
+        <v>1904.235933337413</v>
       </c>
       <c r="AD11" t="n">
-        <v>1421110.127196861</v>
+        <v>1538576.566814891</v>
       </c>
       <c r="AE11" t="n">
-        <v>1944425.57098477</v>
+        <v>2105148.335923728</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.773678014677999e-07</v>
+        <v>1.672398435874905e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.91666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1758852.323508412</v>
+        <v>1904235.933337413</v>
       </c>
     </row>
   </sheetData>
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1514.868731232358</v>
+        <v>1629.966598635458</v>
       </c>
       <c r="AB2" t="n">
-        <v>2072.710229363819</v>
+        <v>2230.192209304279</v>
       </c>
       <c r="AC2" t="n">
-        <v>1874.893674140413</v>
+        <v>2017.345794942703</v>
       </c>
       <c r="AD2" t="n">
-        <v>1514868.731232358</v>
+        <v>1629966.598635458</v>
       </c>
       <c r="AE2" t="n">
-        <v>2072710.229363819</v>
+        <v>2230192.20930428</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.066610304168771e-07</v>
+        <v>1.717976889229328e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1874893.674140413</v>
+        <v>2017345.794942703</v>
       </c>
     </row>
     <row r="3">
@@ -7134,28 +7134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1140.823863176684</v>
+        <v>1245.372947234021</v>
       </c>
       <c r="AB3" t="n">
-        <v>1560.925539195098</v>
+        <v>1703.97420838241</v>
       </c>
       <c r="AC3" t="n">
-        <v>1411.95299650707</v>
+        <v>1541.349301477213</v>
       </c>
       <c r="AD3" t="n">
-        <v>1140823.863176683</v>
+        <v>1245372.947234021</v>
       </c>
       <c r="AE3" t="n">
-        <v>1560925.539195098</v>
+        <v>1703974.20838241</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.288181006325697e-07</v>
+        <v>1.978139479925036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.88599537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>1411952.99650707</v>
+        <v>1541349.301477213</v>
       </c>
     </row>
     <row r="4">
@@ -7240,28 +7240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1063.235830518722</v>
+        <v>1157.32156159342</v>
       </c>
       <c r="AB4" t="n">
-        <v>1454.766169970054</v>
+        <v>1583.498417995963</v>
       </c>
       <c r="AC4" t="n">
-        <v>1315.925328485254</v>
+        <v>1432.371551436416</v>
       </c>
       <c r="AD4" t="n">
-        <v>1063235.830518723</v>
+        <v>1157321.56159342</v>
       </c>
       <c r="AE4" t="n">
-        <v>1454766.169970054</v>
+        <v>1583498.417995963</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.541588725185051e-07</v>
+        <v>2.032108692287719e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1315925.328485254</v>
+        <v>1432371.551436416</v>
       </c>
     </row>
     <row r="5">
@@ -7346,28 +7346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1070.247719587464</v>
+        <v>1164.333450662161</v>
       </c>
       <c r="AB5" t="n">
-        <v>1464.360145936619</v>
+        <v>1593.092393962528</v>
       </c>
       <c r="AC5" t="n">
-        <v>1324.6036688508</v>
+        <v>1441.049891801962</v>
       </c>
       <c r="AD5" t="n">
-        <v>1070247.719587464</v>
+        <v>1164333.450662161</v>
       </c>
       <c r="AE5" t="n">
-        <v>1464360.145936619</v>
+        <v>1593092.393962528</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.540376248061323e-07</v>
+        <v>2.031850466391247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1324603.6688508</v>
+        <v>1441049.891801962</v>
       </c>
     </row>
   </sheetData>
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2072.119643889136</v>
+        <v>2214.582310780599</v>
       </c>
       <c r="AB2" t="n">
-        <v>2835.165512236023</v>
+        <v>3030.089218086388</v>
       </c>
       <c r="AC2" t="n">
-        <v>2564.581294928005</v>
+        <v>2740.901755869036</v>
       </c>
       <c r="AD2" t="n">
-        <v>2072119.643889136</v>
+        <v>2214582.310780599</v>
       </c>
       <c r="AE2" t="n">
-        <v>2835165.512236023</v>
+        <v>3030089.218086387</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.001388118940657e-07</v>
+        <v>1.421523848300198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.96990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>2564581.294928005</v>
+        <v>2740901.755869036</v>
       </c>
     </row>
     <row r="3">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1497.069649577247</v>
+        <v>1617.588724376307</v>
       </c>
       <c r="AB3" t="n">
-        <v>2048.356740603232</v>
+        <v>2213.256255669637</v>
       </c>
       <c r="AC3" t="n">
-        <v>1852.864448166801</v>
+        <v>2002.02618495319</v>
       </c>
       <c r="AD3" t="n">
-        <v>1497069.649577247</v>
+        <v>1617588.724376307</v>
       </c>
       <c r="AE3" t="n">
-        <v>2048356.740603232</v>
+        <v>2213256.255669637</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.443191537072406e-07</v>
+        <v>1.714259789890183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.87557870370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>1852864.448166801</v>
+        <v>2002026.18495319</v>
       </c>
     </row>
     <row r="4">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1314.309713291349</v>
+        <v>1423.94233289878</v>
       </c>
       <c r="AB4" t="n">
-        <v>1798.296532977521</v>
+        <v>1948.300719774233</v>
       </c>
       <c r="AC4" t="n">
-        <v>1626.669635795182</v>
+        <v>1762.357633536214</v>
       </c>
       <c r="AD4" t="n">
-        <v>1314309.713291349</v>
+        <v>1423942.33289878</v>
       </c>
       <c r="AE4" t="n">
-        <v>1798296.532977521</v>
+        <v>1948300.719774233</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.973283381067746e-07</v>
+        <v>1.821886761174674e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.70081018518518</v>
       </c>
       <c r="AH4" t="n">
-        <v>1626669.635795182</v>
+        <v>1762357.633536214</v>
       </c>
     </row>
     <row r="5">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1213.663143844724</v>
+        <v>1312.324056914507</v>
       </c>
       <c r="AB5" t="n">
-        <v>1660.587456447381</v>
+        <v>1795.57967032175</v>
       </c>
       <c r="AC5" t="n">
-        <v>1502.103320253175</v>
+        <v>1624.212066698137</v>
       </c>
       <c r="AD5" t="n">
-        <v>1213663.143844724</v>
+        <v>1312324.056914507</v>
       </c>
       <c r="AE5" t="n">
-        <v>1660587.456447381</v>
+        <v>1795579.67032175</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.226729919170553e-07</v>
+        <v>1.873345170858835e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.18865740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>1502103.320253175</v>
+        <v>1624212.066698137</v>
       </c>
     </row>
     <row r="6">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1191.996348424902</v>
+        <v>1290.657261494685</v>
       </c>
       <c r="AB6" t="n">
-        <v>1630.941991082428</v>
+        <v>1765.934204956797</v>
       </c>
       <c r="AC6" t="n">
-        <v>1475.287176494981</v>
+        <v>1597.395922939943</v>
       </c>
       <c r="AD6" t="n">
-        <v>1191996.348424902</v>
+        <v>1290657.261494685</v>
       </c>
       <c r="AE6" t="n">
-        <v>1630941.991082428</v>
+        <v>1765934.204956797</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.276027300723729e-07</v>
+        <v>1.883354243680697e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.0931712962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1475287.176494981</v>
+        <v>1597395.922939943</v>
       </c>
     </row>
     <row r="7">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1199.602826296271</v>
+        <v>1298.263739366054</v>
       </c>
       <c r="AB7" t="n">
-        <v>1641.349509680155</v>
+        <v>1776.341723554524</v>
       </c>
       <c r="AC7" t="n">
-        <v>1484.701416124786</v>
+        <v>1606.810162569747</v>
       </c>
       <c r="AD7" t="n">
-        <v>1199602.826296271</v>
+        <v>1298263.739366054</v>
       </c>
       <c r="AE7" t="n">
-        <v>1641349.509680155</v>
+        <v>1776341.723554524</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.276027300723729e-07</v>
+        <v>1.883354243680697e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1484701.416124786</v>
+        <v>1606810.162569747</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1149.398538984052</v>
+        <v>1249.778170607966</v>
       </c>
       <c r="AB2" t="n">
-        <v>1572.657788922738</v>
+        <v>1710.001629347381</v>
       </c>
       <c r="AC2" t="n">
-        <v>1422.56553678702</v>
+        <v>1546.801473844827</v>
       </c>
       <c r="AD2" t="n">
-        <v>1149398.538984052</v>
+        <v>1249778.170607966</v>
       </c>
       <c r="AE2" t="n">
-        <v>1572657.788922738</v>
+        <v>1710001.629347381</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.981038852564991e-07</v>
+        <v>1.999901931186026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.28645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1422565.53678702</v>
+        <v>1546801.473844827</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>962.4572410456899</v>
+        <v>1062.836783161054</v>
       </c>
       <c r="AB3" t="n">
-        <v>1316.876457815468</v>
+        <v>1454.220175770564</v>
       </c>
       <c r="AC3" t="n">
-        <v>1191.195616929276</v>
+        <v>1315.431443205856</v>
       </c>
       <c r="AD3" t="n">
-        <v>962457.2410456899</v>
+        <v>1062836.783161053</v>
       </c>
       <c r="AE3" t="n">
-        <v>1316876.457815468</v>
+        <v>1454220.175770564</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.692520477873351e-07</v>
+        <v>2.158334992195575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.79629629629629</v>
       </c>
       <c r="AH3" t="n">
-        <v>1191195.616929276</v>
+        <v>1315431.443205856</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3695.469402512974</v>
+        <v>3873.542606080831</v>
       </c>
       <c r="AB2" t="n">
-        <v>5056.304269122315</v>
+        <v>5299.951882279162</v>
       </c>
       <c r="AC2" t="n">
-        <v>4573.737686244703</v>
+        <v>4794.131913163424</v>
       </c>
       <c r="AD2" t="n">
-        <v>3695469.402512974</v>
+        <v>3873542.606080831</v>
       </c>
       <c r="AE2" t="n">
-        <v>5056304.269122316</v>
+        <v>5299951.882279161</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.179552812053887e-07</v>
+        <v>9.793310276744693e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4573737.686244703</v>
+        <v>4794131.913163424</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2310.117512664749</v>
+        <v>2440.681794922238</v>
       </c>
       <c r="AB3" t="n">
-        <v>3160.804696019934</v>
+        <v>3339.448507094249</v>
       </c>
       <c r="AC3" t="n">
-        <v>2859.141932048926</v>
+        <v>3020.736228522464</v>
       </c>
       <c r="AD3" t="n">
-        <v>2310117.512664748</v>
+        <v>2440681.794922238</v>
       </c>
       <c r="AE3" t="n">
-        <v>3160804.696019934</v>
+        <v>3339448.507094249</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.975167014569451e-07</v>
+        <v>1.318839237372427e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.33506944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>2859141.932048926</v>
+        <v>3020736.228522464</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1977.711234972583</v>
+        <v>2096.39828690248</v>
       </c>
       <c r="AB4" t="n">
-        <v>2705.991762151346</v>
+        <v>2868.384622705018</v>
       </c>
       <c r="AC4" t="n">
-        <v>2447.735706254912</v>
+        <v>2594.630020117153</v>
       </c>
       <c r="AD4" t="n">
-        <v>1977711.234972583</v>
+        <v>2096398.286902481</v>
       </c>
       <c r="AE4" t="n">
-        <v>2705991.762151346</v>
+        <v>2868384.622705018</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.669184018180413e-07</v>
+        <v>1.450061450955836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2447735.706254912</v>
+        <v>2594630.020117152</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1819.179665200986</v>
+        <v>1937.781376276313</v>
       </c>
       <c r="AB5" t="n">
-        <v>2489.081874470595</v>
+        <v>2651.357967902069</v>
       </c>
       <c r="AC5" t="n">
-        <v>2251.527393819473</v>
+        <v>2398.316084649775</v>
       </c>
       <c r="AD5" t="n">
-        <v>1819179.665200986</v>
+        <v>1937781.376276313</v>
       </c>
       <c r="AE5" t="n">
-        <v>2489081.874470595</v>
+        <v>2651357.967902069</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.034229424269033e-07</v>
+        <v>1.519082910078839e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.39236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2251527.393819473</v>
+        <v>2398316.084649775</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1710.412282876237</v>
+        <v>1829.099245297585</v>
       </c>
       <c r="AB6" t="n">
-        <v>2340.261543495626</v>
+        <v>2502.654281579749</v>
       </c>
       <c r="AC6" t="n">
-        <v>2116.910266362108</v>
+        <v>2263.804469443122</v>
       </c>
       <c r="AD6" t="n">
-        <v>1710412.282876238</v>
+        <v>1829099.245297585</v>
       </c>
       <c r="AE6" t="n">
-        <v>2340261.543495626</v>
+        <v>2502654.281579749</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.268439972423237e-07</v>
+        <v>1.56336658960466e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.8425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>2116910.266362108</v>
+        <v>2263804.469443122</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1640.910183797148</v>
+        <v>1759.597146218495</v>
       </c>
       <c r="AB7" t="n">
-        <v>2245.165705319406</v>
+        <v>2407.55844340353</v>
       </c>
       <c r="AC7" t="n">
-        <v>2030.89024151358</v>
+        <v>2177.784444594594</v>
       </c>
       <c r="AD7" t="n">
-        <v>1640910.183797148</v>
+        <v>1759597.146218495</v>
       </c>
       <c r="AE7" t="n">
-        <v>2245165.705319406</v>
+        <v>2407558.44340353</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.419196187327093e-07</v>
+        <v>1.59187102700059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.50405092592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>2030890.24151358</v>
+        <v>2177784.444594594</v>
       </c>
     </row>
     <row r="8">
@@ -9509,28 +9509,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1578.99906423401</v>
+        <v>1685.808885836316</v>
       </c>
       <c r="AB8" t="n">
-        <v>2160.456180207294</v>
+        <v>2306.598090240333</v>
       </c>
       <c r="AC8" t="n">
-        <v>1954.265274587602</v>
+        <v>2086.459605838547</v>
       </c>
       <c r="AD8" t="n">
-        <v>1578999.06423401</v>
+        <v>1685808.885836316</v>
       </c>
       <c r="AE8" t="n">
-        <v>2160456.180207294</v>
+        <v>2306598.090240333</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.539801159250177e-07</v>
+        <v>1.614674576917334e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.24363425925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>1954265.274587602</v>
+        <v>2086459.605838547</v>
       </c>
     </row>
     <row r="9">
@@ -9615,28 +9615,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1520.507029256037</v>
+        <v>1627.316850858343</v>
       </c>
       <c r="AB9" t="n">
-        <v>2080.424797463968</v>
+        <v>2226.566707497008</v>
       </c>
       <c r="AC9" t="n">
-        <v>1881.871974688549</v>
+        <v>2014.066305939494</v>
       </c>
       <c r="AD9" t="n">
-        <v>1520507.029256037</v>
+        <v>1627316.850858343</v>
       </c>
       <c r="AE9" t="n">
-        <v>2080424.797463968</v>
+        <v>2226566.707497008</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.626485982819893e-07</v>
+        <v>1.631064628419995e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.05844907407407</v>
       </c>
       <c r="AH9" t="n">
-        <v>1881871.974688549</v>
+        <v>2014066.305939494</v>
       </c>
     </row>
     <row r="10">
@@ -9721,28 +9721,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1466.633721494288</v>
+        <v>1585.235343061063</v>
       </c>
       <c r="AB10" t="n">
-        <v>2006.712961061747</v>
+        <v>2168.988932023673</v>
       </c>
       <c r="AC10" t="n">
-        <v>1815.195092497343</v>
+        <v>1961.983672546418</v>
       </c>
       <c r="AD10" t="n">
-        <v>1466633.721494288</v>
+        <v>1585235.343061063</v>
       </c>
       <c r="AE10" t="n">
-        <v>2006712.961061747</v>
+        <v>2168988.932023672</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.683557978462069e-07</v>
+        <v>1.641855594005597e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1815195.092497343</v>
+        <v>1961983.672546418</v>
       </c>
     </row>
     <row r="11">
@@ -9827,28 +9827,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1453.703140980664</v>
+        <v>1572.304762547439</v>
       </c>
       <c r="AB11" t="n">
-        <v>1989.020770346055</v>
+        <v>2151.29674130798</v>
       </c>
       <c r="AC11" t="n">
-        <v>1799.191419632411</v>
+        <v>1945.979999681486</v>
       </c>
       <c r="AD11" t="n">
-        <v>1453703.140980664</v>
+        <v>1572304.762547439</v>
       </c>
       <c r="AE11" t="n">
-        <v>1989020.770346055</v>
+        <v>2151296.74130798</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.705094580591191e-07</v>
+        <v>1.64592765649073e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.89641203703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>1799191.419632411</v>
+        <v>1945979.999681486</v>
       </c>
     </row>
     <row r="12">
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1458.919939775955</v>
+        <v>1577.52156134273</v>
       </c>
       <c r="AB12" t="n">
-        <v>1996.158624606692</v>
+        <v>2158.434595568617</v>
       </c>
       <c r="AC12" t="n">
-        <v>1805.648047100453</v>
+        <v>1952.436627149529</v>
       </c>
       <c r="AD12" t="n">
-        <v>1458919.939775955</v>
+        <v>1577521.56134273</v>
       </c>
       <c r="AE12" t="n">
-        <v>1996158.624606692</v>
+        <v>2158434.595568617</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.706171410697646e-07</v>
+        <v>1.646131259614986e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.89351851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>1805648.047100453</v>
+        <v>1952436.627149529</v>
       </c>
     </row>
   </sheetData>
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>952.3108024003118</v>
+        <v>1050.306692248299</v>
       </c>
       <c r="AB2" t="n">
-        <v>1302.993652831581</v>
+        <v>1437.075952595137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1178.637767368412</v>
+        <v>1299.923440628223</v>
       </c>
       <c r="AD2" t="n">
-        <v>952310.8024003118</v>
+        <v>1050306.692248299</v>
       </c>
       <c r="AE2" t="n">
-        <v>1302993.652831581</v>
+        <v>1437075.952595137</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540270361044708e-07</v>
+        <v>2.187170659841957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.54282407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>1178637.767368412</v>
+        <v>1299923.440628223</v>
       </c>
     </row>
     <row r="3">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.2556776418068</v>
+        <v>1017.080975289202</v>
       </c>
       <c r="AB3" t="n">
-        <v>1257.766172847811</v>
+        <v>1391.61506083652</v>
       </c>
       <c r="AC3" t="n">
-        <v>1137.726734597126</v>
+        <v>1258.801272574286</v>
       </c>
       <c r="AD3" t="n">
-        <v>919255.6776418068</v>
+        <v>1017080.975289202</v>
       </c>
       <c r="AE3" t="n">
-        <v>1257766.172847811</v>
+        <v>1391615.06083652</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.730998446068971e-07</v>
+        <v>2.230896346409107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.16087962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1137726.734597126</v>
+        <v>1258801.272574286</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2698.853405147362</v>
+        <v>2846.906932467882</v>
       </c>
       <c r="AB2" t="n">
-        <v>3692.690293931879</v>
+        <v>3895.263661672471</v>
       </c>
       <c r="AC2" t="n">
-        <v>3340.26511500226</v>
+        <v>3523.505164839189</v>
       </c>
       <c r="AD2" t="n">
-        <v>2698853.405147362</v>
+        <v>2846906.932467882</v>
       </c>
       <c r="AE2" t="n">
-        <v>3692690.293931879</v>
+        <v>3895263.661672471</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.13835724684155e-07</v>
+        <v>1.20310953721163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.38599537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>3340265.11500226</v>
+        <v>3523505.164839189</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1836.827433237926</v>
+        <v>1962.090289716581</v>
       </c>
       <c r="AB3" t="n">
-        <v>2513.228329263313</v>
+        <v>2684.618495704618</v>
       </c>
       <c r="AC3" t="n">
-        <v>2273.369344856536</v>
+        <v>2428.402274360291</v>
       </c>
       <c r="AD3" t="n">
-        <v>1836827.433237926</v>
+        <v>1962090.289716581</v>
       </c>
       <c r="AE3" t="n">
-        <v>2513228.329263313</v>
+        <v>2684618.495704617</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.752712736527035e-07</v>
+        <v>1.519520982161324e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.89120370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>2273369.344856536</v>
+        <v>2428402.274360291</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1606.733419652533</v>
+        <v>1720.515734118511</v>
       </c>
       <c r="AB4" t="n">
-        <v>2198.403548844325</v>
+        <v>2354.085531218115</v>
       </c>
       <c r="AC4" t="n">
-        <v>1988.590999621381</v>
+        <v>2129.414912098452</v>
       </c>
       <c r="AD4" t="n">
-        <v>1606733.419652533</v>
+        <v>1720515.734118511</v>
       </c>
       <c r="AE4" t="n">
-        <v>2198403.548844324</v>
+        <v>2354085.531218115</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.357816163832863e-07</v>
+        <v>1.638120417664313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.37789351851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>1988590.999621381</v>
+        <v>2129414.912098452</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1476.474689314958</v>
+        <v>1590.342255126957</v>
       </c>
       <c r="AB5" t="n">
-        <v>2020.177807386847</v>
+        <v>2175.976434413287</v>
       </c>
       <c r="AC5" t="n">
-        <v>1827.374872787206</v>
+        <v>1968.304297514989</v>
       </c>
       <c r="AD5" t="n">
-        <v>1476474.689314958</v>
+        <v>1590342.255126957</v>
       </c>
       <c r="AE5" t="n">
-        <v>2020177.807386847</v>
+        <v>2175976.434413287</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.676321113080796e-07</v>
+        <v>1.700546947545164e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.66608796296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>1827374.872787206</v>
+        <v>1968304.297514989</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1392.159516411259</v>
+        <v>1494.631881065151</v>
       </c>
       <c r="AB6" t="n">
-        <v>1904.814068097102</v>
+        <v>2045.021278178227</v>
       </c>
       <c r="AC6" t="n">
-        <v>1723.021286861249</v>
+        <v>1849.847317594287</v>
       </c>
       <c r="AD6" t="n">
-        <v>1392159.516411259</v>
+        <v>1494631.881065151</v>
       </c>
       <c r="AE6" t="n">
-        <v>1904814.068097102</v>
+        <v>2045021.278178227</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.863841601653832e-07</v>
+        <v>1.737300704153398e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.27256944444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>1723021.286861249</v>
+        <v>1849847.317594287</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1328.063698270834</v>
+        <v>1430.536062924727</v>
       </c>
       <c r="AB7" t="n">
-        <v>1817.115342009447</v>
+        <v>1957.322552090571</v>
       </c>
       <c r="AC7" t="n">
-        <v>1643.692404105464</v>
+        <v>1770.518434838502</v>
       </c>
       <c r="AD7" t="n">
-        <v>1328063.698270834</v>
+        <v>1430536.062924727</v>
       </c>
       <c r="AE7" t="n">
-        <v>1817115.342009447</v>
+        <v>1957322.552090571</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.987549147846792e-07</v>
+        <v>1.761547212244204e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1643692.404105464</v>
+        <v>1770518.434838502</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1302.106871401978</v>
+        <v>1415.889096359404</v>
       </c>
       <c r="AB8" t="n">
-        <v>1781.600066353095</v>
+        <v>1937.281926257337</v>
       </c>
       <c r="AC8" t="n">
-        <v>1611.566656511752</v>
+        <v>1752.390458207597</v>
       </c>
       <c r="AD8" t="n">
-        <v>1302106.871401978</v>
+        <v>1415889.096359405</v>
       </c>
       <c r="AE8" t="n">
-        <v>1781600.066353095</v>
+        <v>1937281.926257337</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.013298229859806e-07</v>
+        <v>1.766593996733693e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.97164351851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>1611566.656511752</v>
+        <v>1752390.458207597</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1307.981427690215</v>
+        <v>1421.763652647642</v>
       </c>
       <c r="AB9" t="n">
-        <v>1789.637893433794</v>
+        <v>1945.319753338036</v>
       </c>
       <c r="AC9" t="n">
-        <v>1618.837364657031</v>
+        <v>1759.661166352875</v>
       </c>
       <c r="AD9" t="n">
-        <v>1307981.427690215</v>
+        <v>1421763.652647642</v>
       </c>
       <c r="AE9" t="n">
-        <v>1789637.893433794</v>
+        <v>1945319.753338036</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.012178704554892e-07</v>
+        <v>1.766374571321106e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.97164351851852</v>
       </c>
       <c r="AH9" t="n">
-        <v>1618837.364657031</v>
+        <v>1759661.166352875</v>
       </c>
     </row>
   </sheetData>
@@ -11672,28 +11672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3166.953301003623</v>
+        <v>3329.910331381667</v>
       </c>
       <c r="AB2" t="n">
-        <v>4333.165222552376</v>
+        <v>4556.130220672423</v>
       </c>
       <c r="AC2" t="n">
-        <v>3919.6140153474</v>
+        <v>4121.299546980202</v>
       </c>
       <c r="AD2" t="n">
-        <v>3166953.301003623</v>
+        <v>3329910.331381667</v>
       </c>
       <c r="AE2" t="n">
-        <v>4333165.222552376</v>
+        <v>4556130.220672423</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.639223340672859e-07</v>
+        <v>1.084255209290013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.14236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>3919614.0153474</v>
+        <v>4121299.546980202</v>
       </c>
     </row>
     <row r="3">
@@ -11778,28 +11778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2062.96660155985</v>
+        <v>2191.071251485904</v>
       </c>
       <c r="AB3" t="n">
-        <v>2822.641915917367</v>
+        <v>2997.920349524651</v>
       </c>
       <c r="AC3" t="n">
-        <v>2553.252933065023</v>
+        <v>2711.803038973541</v>
       </c>
       <c r="AD3" t="n">
-        <v>2062966.60155985</v>
+        <v>2191071.251485904</v>
       </c>
       <c r="AE3" t="n">
-        <v>2822641.915917367</v>
+        <v>2997920.349524651</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.360277886775896e-07</v>
+        <v>1.415162897167086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2553252.933065023</v>
+        <v>2711803.038973541</v>
       </c>
     </row>
     <row r="4">
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1787.209722012936</v>
+        <v>1915.143690229843</v>
       </c>
       <c r="AB4" t="n">
-        <v>2445.339187786353</v>
+        <v>2620.384087149067</v>
       </c>
       <c r="AC4" t="n">
-        <v>2211.959447759129</v>
+        <v>2370.298307603724</v>
       </c>
       <c r="AD4" t="n">
-        <v>1787209.722012936</v>
+        <v>1915143.690229843</v>
       </c>
       <c r="AE4" t="n">
-        <v>2445339.187786353</v>
+        <v>2620384.087149066</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.997035161481322e-07</v>
+        <v>1.53759241457476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2211959.447759129</v>
+        <v>2370298.307603724</v>
       </c>
     </row>
     <row r="5">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1656.357988314438</v>
+        <v>1761.17097321703</v>
       </c>
       <c r="AB5" t="n">
-        <v>2266.302072969</v>
+        <v>2409.711822935273</v>
       </c>
       <c r="AC5" t="n">
-        <v>2050.009383899775</v>
+        <v>2179.732308606115</v>
       </c>
       <c r="AD5" t="n">
-        <v>1656357.988314438</v>
+        <v>1761170.97321703</v>
       </c>
       <c r="AE5" t="n">
-        <v>2266302.072969</v>
+        <v>2409711.822935273</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.339271629540053e-07</v>
+        <v>1.603394325739608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.03067129629629</v>
       </c>
       <c r="AH5" t="n">
-        <v>2050009.383899774</v>
+        <v>2179732.308606115</v>
       </c>
     </row>
     <row r="6">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1557.536492678071</v>
+        <v>1673.909924483545</v>
       </c>
       <c r="AB6" t="n">
-        <v>2131.090142942626</v>
+        <v>2290.317406372345</v>
       </c>
       <c r="AC6" t="n">
-        <v>1927.701890703982</v>
+        <v>2071.732727588837</v>
       </c>
       <c r="AD6" t="n">
-        <v>1557536.49267807</v>
+        <v>1673909.924483544</v>
       </c>
       <c r="AE6" t="n">
-        <v>2131090.142942626</v>
+        <v>2290317.406372345</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.548233319172065e-07</v>
+        <v>1.643571454191222e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.56481481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>1927701.890703982</v>
+        <v>2071732.727588837</v>
       </c>
     </row>
     <row r="7">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1482.04522041741</v>
+        <v>1586.772864465431</v>
       </c>
       <c r="AB7" t="n">
-        <v>2027.799653795709</v>
+        <v>2171.092636639785</v>
       </c>
       <c r="AC7" t="n">
-        <v>1834.269300872135</v>
+        <v>1963.886602546537</v>
       </c>
       <c r="AD7" t="n">
-        <v>1482045.22041741</v>
+        <v>1586772.864465431</v>
       </c>
       <c r="AE7" t="n">
-        <v>2027799.653795709</v>
+        <v>2171092.636639785</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.706188612122249e-07</v>
+        <v>1.673941567036536e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1834269.300872135</v>
+        <v>1963886.602546537</v>
       </c>
     </row>
     <row r="8">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1422.486673099422</v>
+        <v>1527.214317147442</v>
       </c>
       <c r="AB8" t="n">
-        <v>1946.309021817571</v>
+        <v>2089.602004661647</v>
       </c>
       <c r="AC8" t="n">
-        <v>1760.556020437171</v>
+        <v>1890.173322111573</v>
       </c>
       <c r="AD8" t="n">
-        <v>1422486.673099421</v>
+        <v>1527214.317147442</v>
       </c>
       <c r="AE8" t="n">
-        <v>1946309.021817571</v>
+        <v>2089602.004661647</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.799426111433122e-07</v>
+        <v>1.691868369757729e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.03530092592593</v>
       </c>
       <c r="AH8" t="n">
-        <v>1760556.020437171</v>
+        <v>1890173.322111573</v>
       </c>
     </row>
     <row r="9">
@@ -12414,28 +12414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1376.429176124659</v>
+        <v>1492.717267075561</v>
       </c>
       <c r="AB9" t="n">
-        <v>1883.291122543341</v>
+        <v>2042.401618850862</v>
       </c>
       <c r="AC9" t="n">
-        <v>1703.552461023495</v>
+        <v>1847.477674876411</v>
       </c>
       <c r="AD9" t="n">
-        <v>1376429.176124659</v>
+        <v>1492717.267075561</v>
       </c>
       <c r="AE9" t="n">
-        <v>1883291.122543341</v>
+        <v>2042401.618850862</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.854271699263047e-07</v>
+        <v>1.702413547829019e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.9224537037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>1703552.461023495</v>
+        <v>1847477.674876411</v>
       </c>
     </row>
     <row r="10">
@@ -12520,28 +12520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1383.024593321399</v>
+        <v>1499.312684272301</v>
       </c>
       <c r="AB10" t="n">
-        <v>1892.315263321192</v>
+        <v>2051.425759628713</v>
       </c>
       <c r="AC10" t="n">
-        <v>1711.715350470969</v>
+        <v>1855.640564323885</v>
       </c>
       <c r="AD10" t="n">
-        <v>1383024.593321399</v>
+        <v>1499312.684272301</v>
       </c>
       <c r="AE10" t="n">
-        <v>1892315.263321192</v>
+        <v>2051425.759628713</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.849335596358352e-07</v>
+        <v>1.701464481802603e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.93402777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>1711715.350470969</v>
+        <v>1855640.564323885</v>
       </c>
     </row>
   </sheetData>
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4293.910753729436</v>
+        <v>4487.311189413328</v>
       </c>
       <c r="AB2" t="n">
-        <v>5875.118127225825</v>
+        <v>6139.737135553591</v>
       </c>
       <c r="AC2" t="n">
-        <v>5314.40509894325</v>
+        <v>5553.769240511314</v>
       </c>
       <c r="AD2" t="n">
-        <v>4293910.753729436</v>
+        <v>4487311.189413328</v>
       </c>
       <c r="AE2" t="n">
-        <v>5875118.127225825</v>
+        <v>6139737.135553591</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.757558534782902e-07</v>
+        <v>8.86297070649759e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.19618055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>5314405.09894325</v>
+        <v>5553769.240511314</v>
       </c>
     </row>
     <row r="3">
@@ -12923,28 +12923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2560.295694960864</v>
+        <v>2705.239368032707</v>
       </c>
       <c r="AB3" t="n">
-        <v>3503.109522119945</v>
+        <v>3701.427850080408</v>
       </c>
       <c r="AC3" t="n">
-        <v>3168.777665973779</v>
+        <v>3348.16877105521</v>
       </c>
       <c r="AD3" t="n">
-        <v>2560295.694960864</v>
+        <v>2705239.368032707</v>
       </c>
       <c r="AE3" t="n">
-        <v>3503109.522119945</v>
+        <v>3701427.850080408</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.629983653012248e-07</v>
+        <v>1.235115668500899e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.10474537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>3168777.665973779</v>
+        <v>3348168.771055209</v>
       </c>
     </row>
     <row r="4">
@@ -13029,28 +13029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2163.122073283277</v>
+        <v>2296.058142261773</v>
       </c>
       <c r="AB4" t="n">
-        <v>2959.679050876925</v>
+        <v>3141.568045178936</v>
       </c>
       <c r="AC4" t="n">
-        <v>2677.211436196869</v>
+        <v>2841.741200165383</v>
       </c>
       <c r="AD4" t="n">
-        <v>2163122.073283277</v>
+        <v>2296058.142261773</v>
       </c>
       <c r="AE4" t="n">
-        <v>2959679.050876925</v>
+        <v>3141568.045178936</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.360001814742038e-07</v>
+        <v>1.37111251510444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.81307870370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>2677211.436196869</v>
+        <v>2841741.200165384</v>
       </c>
     </row>
     <row r="5">
@@ -13135,28 +13135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1980.112315833434</v>
+        <v>2101.04087022713</v>
       </c>
       <c r="AB5" t="n">
-        <v>2709.277026913375</v>
+        <v>2874.736810026124</v>
       </c>
       <c r="AC5" t="n">
-        <v>2450.707429958951</v>
+        <v>2600.375963595684</v>
       </c>
       <c r="AD5" t="n">
-        <v>1980112.315833434</v>
+        <v>2101040.87022713</v>
       </c>
       <c r="AE5" t="n">
-        <v>2709277.026913375</v>
+        <v>2874736.810026124</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.754920994329002e-07</v>
+        <v>1.444682962940728e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.75115740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>2450707.429958951</v>
+        <v>2600375.963595684</v>
       </c>
     </row>
     <row r="6">
@@ -13241,28 +13241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1875.92156837448</v>
+        <v>1996.679530567584</v>
       </c>
       <c r="AB6" t="n">
-        <v>2566.718649668665</v>
+        <v>2731.945021006567</v>
       </c>
       <c r="AC6" t="n">
-        <v>2321.754624156537</v>
+        <v>2471.212022510619</v>
       </c>
       <c r="AD6" t="n">
-        <v>1875921.56837448</v>
+        <v>1996679.530567584</v>
       </c>
       <c r="AE6" t="n">
-        <v>2566718.649668665</v>
+        <v>2731945.021006567</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.995789930940353e-07</v>
+        <v>1.489555018926668e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.15798611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2321754.624156537</v>
+        <v>2471212.022510619</v>
       </c>
     </row>
     <row r="7">
@@ -13347,28 +13347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1786.161905052369</v>
+        <v>1907.005118591493</v>
       </c>
       <c r="AB7" t="n">
-        <v>2443.905518394484</v>
+        <v>2609.248534385035</v>
       </c>
       <c r="AC7" t="n">
-        <v>2210.662605761852</v>
+        <v>2360.225516366645</v>
       </c>
       <c r="AD7" t="n">
-        <v>1786161.905052369</v>
+        <v>1907005.118591493</v>
       </c>
       <c r="AE7" t="n">
-        <v>2443905.518394484</v>
+        <v>2609248.534385035</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.1699567004901e-07</v>
+        <v>1.522000967101116e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>2210662.605761852</v>
+        <v>2360225.516366645</v>
       </c>
     </row>
     <row r="8">
@@ -13453,28 +13453,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1723.725314819297</v>
+        <v>1832.475762427603</v>
       </c>
       <c r="AB8" t="n">
-        <v>2358.477021129638</v>
+        <v>2507.274181278463</v>
       </c>
       <c r="AC8" t="n">
-        <v>2133.387284376313</v>
+        <v>2267.983452398661</v>
       </c>
       <c r="AD8" t="n">
-        <v>1723725.314819297</v>
+        <v>1832475.762427603</v>
       </c>
       <c r="AE8" t="n">
-        <v>2358477.021129638</v>
+        <v>2507274.181278463</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.295949682717576e-07</v>
+        <v>1.545472504078377e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.46354166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>2133387.284376313</v>
+        <v>2267983.452398661</v>
       </c>
     </row>
     <row r="9">
@@ -13559,28 +13559,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1669.035383187642</v>
+        <v>1777.785830795948</v>
       </c>
       <c r="AB9" t="n">
-        <v>2283.647843921707</v>
+        <v>2432.445004070531</v>
       </c>
       <c r="AC9" t="n">
-        <v>2065.699698817697</v>
+        <v>2200.295866840045</v>
       </c>
       <c r="AD9" t="n">
-        <v>1669035.383187642</v>
+        <v>1777785.830795947</v>
       </c>
       <c r="AE9" t="n">
-        <v>2283647.843921707</v>
+        <v>2432445.004070532</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.392297257362117e-07</v>
+        <v>1.563421326472753e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.25231481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>2065699.698817697</v>
+        <v>2200295.866840045</v>
       </c>
     </row>
     <row r="10">
@@ -13665,28 +13665,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1627.7138756715</v>
+        <v>1736.464323279805</v>
       </c>
       <c r="AB10" t="n">
-        <v>2227.109934361868</v>
+        <v>2375.907094510694</v>
       </c>
       <c r="AC10" t="n">
-        <v>2014.557687994796</v>
+        <v>2149.153856017143</v>
       </c>
       <c r="AD10" t="n">
-        <v>1627713.8756715</v>
+        <v>1736464.323279805</v>
       </c>
       <c r="AE10" t="n">
-        <v>2227109.934361869</v>
+        <v>2375907.094510694</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.459528806701989e-07</v>
+        <v>1.57594605418751e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.10763888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>2014557.687994796</v>
+        <v>2149153.856017143</v>
       </c>
     </row>
     <row r="11">
@@ -13771,28 +13771,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1565.43149641458</v>
+        <v>1686.189369099133</v>
       </c>
       <c r="AB11" t="n">
-        <v>2141.892435357902</v>
+        <v>2307.118684226255</v>
       </c>
       <c r="AC11" t="n">
-        <v>1937.473227492256</v>
+        <v>2086.930515065112</v>
       </c>
       <c r="AD11" t="n">
-        <v>1565431.49641458</v>
+        <v>1686189.369099132</v>
       </c>
       <c r="AE11" t="n">
-        <v>2141892.435357902</v>
+        <v>2307118.684226255</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.523584062372262e-07</v>
+        <v>1.587879062482672e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.97164351851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>1937473.227492257</v>
+        <v>2086930.515065112</v>
       </c>
     </row>
     <row r="12">
@@ -13877,28 +13877,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1535.023763732191</v>
+        <v>1655.781636416743</v>
       </c>
       <c r="AB12" t="n">
-        <v>2100.287234007368</v>
+        <v>2265.513482875722</v>
       </c>
       <c r="AC12" t="n">
-        <v>1899.838768165351</v>
+        <v>2049.296055738206</v>
       </c>
       <c r="AD12" t="n">
-        <v>1535023.763732191</v>
+        <v>1655781.636416743</v>
       </c>
       <c r="AE12" t="n">
-        <v>2100287.234007368</v>
+        <v>2265513.482875722</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.555346999068264e-07</v>
+        <v>1.59379625667862e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.90509259259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>1899838.768165351</v>
+        <v>2049296.055738206</v>
       </c>
     </row>
     <row r="13">
@@ -13983,28 +13983,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1525.893708353942</v>
+        <v>1646.651581038494</v>
       </c>
       <c r="AB13" t="n">
-        <v>2087.795089449232</v>
+        <v>2253.021338317586</v>
       </c>
       <c r="AC13" t="n">
-        <v>1888.538856351009</v>
+        <v>2037.996143923863</v>
       </c>
       <c r="AD13" t="n">
-        <v>1525893.708353942</v>
+        <v>1646651.581038494</v>
       </c>
       <c r="AE13" t="n">
-        <v>2087795.089449232</v>
+        <v>2253021.338317586</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.576522290198931e-07</v>
+        <v>1.597741052809252e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.8587962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>1888538.856351009</v>
+        <v>2037996.143923863</v>
       </c>
     </row>
     <row r="14">
@@ -14089,28 +14089,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1532.856974501772</v>
+        <v>1653.614847186324</v>
       </c>
       <c r="AB14" t="n">
-        <v>2097.322537390316</v>
+        <v>2262.548786258669</v>
       </c>
       <c r="AC14" t="n">
-        <v>1897.157018032452</v>
+        <v>2046.614305605307</v>
       </c>
       <c r="AD14" t="n">
-        <v>1532856.974501772</v>
+        <v>1653614.847186324</v>
       </c>
       <c r="AE14" t="n">
-        <v>2097322.537390315</v>
+        <v>2262548.786258669</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.575992907920666e-07</v>
+        <v>1.597642432905986e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.86168981481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>1897157.018032452</v>
+        <v>2046614.305605307</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2270.339325442744</v>
+        <v>2414.82026994659</v>
       </c>
       <c r="AB2" t="n">
-        <v>3106.378425373019</v>
+        <v>3304.063627692606</v>
       </c>
       <c r="AC2" t="n">
-        <v>2809.910028284804</v>
+        <v>2988.728432347926</v>
       </c>
       <c r="AD2" t="n">
-        <v>2270339.325442744</v>
+        <v>2414820.26994659</v>
       </c>
       <c r="AE2" t="n">
-        <v>3106378.425373019</v>
+        <v>3304063.627692606</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.700141859432167e-07</v>
+        <v>1.343041663511776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.7337962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2809910.028284803</v>
+        <v>2988728.432347926</v>
       </c>
     </row>
     <row r="3">
@@ -14492,28 +14492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1618.13924824335</v>
+        <v>1729.258831788419</v>
       </c>
       <c r="AB3" t="n">
-        <v>2214.009506711923</v>
+        <v>2366.04822316833</v>
       </c>
       <c r="AC3" t="n">
-        <v>2002.707546773196</v>
+        <v>2140.235901518682</v>
       </c>
       <c r="AD3" t="n">
-        <v>1618139.24824335</v>
+        <v>1729258.83178842</v>
       </c>
       <c r="AE3" t="n">
-        <v>2214009.506711923</v>
+        <v>2366048.22316833</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.198925622671244e-07</v>
+        <v>1.643472472419403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.21122685185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>2002707.546773196</v>
+        <v>2140235.901518682</v>
       </c>
     </row>
     <row r="4">
@@ -14598,28 +14598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1411.397039552704</v>
+        <v>1522.516533589223</v>
       </c>
       <c r="AB4" t="n">
-        <v>1931.13569595885</v>
+        <v>2083.174289945709</v>
       </c>
       <c r="AC4" t="n">
-        <v>1746.830815502509</v>
+        <v>1884.359059466769</v>
       </c>
       <c r="AD4" t="n">
-        <v>1411397.039552704</v>
+        <v>1522516.533589223</v>
       </c>
       <c r="AE4" t="n">
-        <v>1931135.69595885</v>
+        <v>2083174.289945709</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.750445975746992e-07</v>
+        <v>1.754024581314337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.93807870370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1746830.815502509</v>
+        <v>1884359.059466769</v>
       </c>
     </row>
     <row r="5">
@@ -14704,28 +14704,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1301.386654898492</v>
+        <v>1401.385754954453</v>
       </c>
       <c r="AB5" t="n">
-        <v>1780.614634359316</v>
+        <v>1917.437814704817</v>
       </c>
       <c r="AC5" t="n">
-        <v>1610.675272764397</v>
+        <v>1734.440240810264</v>
       </c>
       <c r="AD5" t="n">
-        <v>1301386.654898492</v>
+        <v>1401385.754954453</v>
       </c>
       <c r="AE5" t="n">
-        <v>1780614.634359316</v>
+        <v>1917437.814704817</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.037374009901666e-07</v>
+        <v>1.811539229867154e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.33622685185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1610675.272764397</v>
+        <v>1734440.240810264</v>
       </c>
     </row>
     <row r="6">
@@ -14810,28 +14810,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1239.146509337753</v>
+        <v>1339.145609393714</v>
       </c>
       <c r="AB6" t="n">
-        <v>1695.454921361682</v>
+        <v>1832.278101707184</v>
       </c>
       <c r="AC6" t="n">
-        <v>1533.64308325285</v>
+        <v>1657.408051298717</v>
       </c>
       <c r="AD6" t="n">
-        <v>1239146.509337753</v>
+        <v>1339145.609393714</v>
       </c>
       <c r="AE6" t="n">
-        <v>1695454.921361682</v>
+        <v>1832278.101707184</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.171388301303248e-07</v>
+        <v>1.838402359131343e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.06712962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1533643.08325285</v>
+        <v>1657408.051298717</v>
       </c>
     </row>
     <row r="7">
@@ -14916,28 +14916,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1239.881450995673</v>
+        <v>1339.880551051633</v>
       </c>
       <c r="AB7" t="n">
-        <v>1696.460500961385</v>
+        <v>1833.283681306887</v>
       </c>
       <c r="AC7" t="n">
-        <v>1534.552691746897</v>
+        <v>1658.317659792764</v>
       </c>
       <c r="AD7" t="n">
-        <v>1239881.450995672</v>
+        <v>1339880.551051633</v>
       </c>
       <c r="AE7" t="n">
-        <v>1696460.500961385</v>
+        <v>1833283.681306887</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.178260829067434e-07</v>
+        <v>1.839779955503866e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.05555555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>1534552.691746897</v>
+        <v>1658317.659792764</v>
       </c>
     </row>
   </sheetData>
@@ -15213,28 +15213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1700.404699574513</v>
+        <v>1827.891754601814</v>
       </c>
       <c r="AB2" t="n">
-        <v>2326.568726518791</v>
+        <v>2501.002139539066</v>
       </c>
       <c r="AC2" t="n">
-        <v>2104.524272619553</v>
+        <v>2262.310005520006</v>
       </c>
       <c r="AD2" t="n">
-        <v>1700404.699574513</v>
+        <v>1827891.754601814</v>
       </c>
       <c r="AE2" t="n">
-        <v>2326568.726518791</v>
+        <v>2501002.139539066</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.681495166129559e-07</v>
+        <v>1.607016827224968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.47106481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>2104524.272619553</v>
+        <v>2262310.005520006</v>
       </c>
     </row>
     <row r="3">
@@ -15319,28 +15319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1272.498787137402</v>
+        <v>1378.78068500553</v>
       </c>
       <c r="AB3" t="n">
-        <v>1741.088979245813</v>
+        <v>1886.508560735399</v>
       </c>
       <c r="AC3" t="n">
-        <v>1574.921890700322</v>
+        <v>1706.462831430206</v>
       </c>
       <c r="AD3" t="n">
-        <v>1272498.787137402</v>
+        <v>1378780.68500553</v>
       </c>
       <c r="AE3" t="n">
-        <v>1741088.979245813</v>
+        <v>1886508.560735399</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.978448450625183e-07</v>
+        <v>1.87834756521713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.22743055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1574921.890700322</v>
+        <v>1706462.831430206</v>
       </c>
     </row>
     <row r="4">
@@ -15425,28 +15425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1120.701952243212</v>
+        <v>1216.42394195904</v>
       </c>
       <c r="AB4" t="n">
-        <v>1533.393852939863</v>
+        <v>1664.364902225204</v>
       </c>
       <c r="AC4" t="n">
-        <v>1387.048895747071</v>
+        <v>1505.520251907641</v>
       </c>
       <c r="AD4" t="n">
-        <v>1120701.952243212</v>
+        <v>1216423.94195904</v>
       </c>
       <c r="AE4" t="n">
-        <v>1533393.852939863</v>
+        <v>1664364.902225204</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.411561644987566e-07</v>
+        <v>1.968957554077438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.34201388888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>1387048.895747071</v>
+        <v>1505520.251907641</v>
       </c>
     </row>
     <row r="5">
@@ -15531,28 +15531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1113.462306220363</v>
+        <v>1209.18429593619</v>
       </c>
       <c r="AB5" t="n">
-        <v>1523.48824986076</v>
+        <v>1654.4592991461</v>
       </c>
       <c r="AC5" t="n">
-        <v>1378.088669523236</v>
+        <v>1496.560025683806</v>
       </c>
       <c r="AD5" t="n">
-        <v>1113462.306220363</v>
+        <v>1209184.29593619</v>
       </c>
       <c r="AE5" t="n">
-        <v>1523488.24986076</v>
+        <v>1654459.2991461</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.44974242245202e-07</v>
+        <v>1.976945211497631e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.26678240740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>1378088.669523236</v>
+        <v>1496560.025683806</v>
       </c>
     </row>
   </sheetData>
@@ -28441,28 +28441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1339.579518689742</v>
+        <v>1442.233460227233</v>
       </c>
       <c r="AB2" t="n">
-        <v>1832.871795548737</v>
+        <v>1973.327447132608</v>
       </c>
       <c r="AC2" t="n">
-        <v>1657.945083833286</v>
+        <v>1784.995845160738</v>
       </c>
       <c r="AD2" t="n">
-        <v>1339579.518689742</v>
+        <v>1442233.460227233</v>
       </c>
       <c r="AE2" t="n">
-        <v>1832871.795548737</v>
+        <v>1973327.447132608</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.496015030832002e-07</v>
+        <v>1.846911129556445e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.01851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1657945.083833286</v>
+        <v>1784995.845160738</v>
       </c>
     </row>
     <row r="3">
@@ -28547,28 +28547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1026.095519065985</v>
+        <v>1128.664030240353</v>
       </c>
       <c r="AB3" t="n">
-        <v>1403.949157325517</v>
+        <v>1544.287919317642</v>
       </c>
       <c r="AC3" t="n">
-        <v>1269.958220205387</v>
+        <v>1396.903247719673</v>
       </c>
       <c r="AD3" t="n">
-        <v>1026095.519065985</v>
+        <v>1128664.030240353</v>
       </c>
       <c r="AE3" t="n">
-        <v>1403949.157325517</v>
+        <v>1544287.919317642</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.580310695041476e-07</v>
+        <v>2.082621368143695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.63715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1269958.220205387</v>
+        <v>1396903.247719673</v>
       </c>
     </row>
     <row r="4">
@@ -28653,28 +28653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1019.143464573229</v>
+        <v>1121.711975747598</v>
       </c>
       <c r="AB4" t="n">
-        <v>1394.437049665531</v>
+        <v>1534.775811657656</v>
       </c>
       <c r="AC4" t="n">
-        <v>1261.353934750143</v>
+        <v>1388.298962264429</v>
       </c>
       <c r="AD4" t="n">
-        <v>1019143.464573229</v>
+        <v>1121711.975747598</v>
       </c>
       <c r="AE4" t="n">
-        <v>1394437.049665531</v>
+        <v>1534775.811657656</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.624743983500829e-07</v>
+        <v>2.092280524192802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.55324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>1261353.934750143</v>
+        <v>1388298.962264429</v>
       </c>
     </row>
   </sheetData>
@@ -28950,28 +28950,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>844.4155339352036</v>
+        <v>948.8810029775067</v>
       </c>
       <c r="AB2" t="n">
-        <v>1155.36658651432</v>
+        <v>1298.300849949228</v>
       </c>
       <c r="AC2" t="n">
-        <v>1045.100021064581</v>
+        <v>1174.39283900676</v>
       </c>
       <c r="AD2" t="n">
-        <v>844415.5339352036</v>
+        <v>948881.0029775067</v>
       </c>
       <c r="AE2" t="n">
-        <v>1155366.58651432</v>
+        <v>1298300.849949228</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.676529438577423e-07</v>
+        <v>2.301588618298113e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.80613425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1045100.021064581</v>
+        <v>1174392.83900676</v>
       </c>
     </row>
     <row r="3">
@@ -29056,28 +29056,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>854.5092362641069</v>
+        <v>958.9747053064101</v>
       </c>
       <c r="AB3" t="n">
-        <v>1169.177235343444</v>
+        <v>1312.111498778352</v>
       </c>
       <c r="AC3" t="n">
-        <v>1057.592600952821</v>
+        <v>1186.885418895</v>
       </c>
       <c r="AD3" t="n">
-        <v>854509.2362641069</v>
+        <v>958974.7053064101</v>
       </c>
       <c r="AE3" t="n">
-        <v>1169177.235343444</v>
+        <v>1312111.498778352</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.675204703217224e-07</v>
+        <v>2.301273526420735e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.80902777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1057592.600952821</v>
+        <v>1186885.418895</v>
       </c>
     </row>
   </sheetData>
@@ -29353,28 +29353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2928.099130220811</v>
+        <v>3089.254126236369</v>
       </c>
       <c r="AB2" t="n">
-        <v>4006.354408584999</v>
+        <v>4226.853783790148</v>
       </c>
       <c r="AC2" t="n">
-        <v>3623.993566783224</v>
+        <v>3823.448791091601</v>
       </c>
       <c r="AD2" t="n">
-        <v>2928099.130220811</v>
+        <v>3089254.126236369</v>
       </c>
       <c r="AE2" t="n">
-        <v>4006354.408584999</v>
+        <v>4226853.783790148</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.881085910805122e-07</v>
+        <v>1.141270708136174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.25405092592592</v>
       </c>
       <c r="AH2" t="n">
-        <v>3623993.566783224</v>
+        <v>3823448.791091601</v>
       </c>
     </row>
     <row r="3">
@@ -29459,28 +29459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1955.997389254484</v>
+        <v>2082.582616366582</v>
       </c>
       <c r="AB3" t="n">
-        <v>2676.281920492579</v>
+        <v>2849.481412773433</v>
       </c>
       <c r="AC3" t="n">
-        <v>2420.861330186034</v>
+        <v>2577.530906010616</v>
       </c>
       <c r="AD3" t="n">
-        <v>1955997.389254484</v>
+        <v>2082582.616366582</v>
       </c>
       <c r="AE3" t="n">
-        <v>2676281.920492579</v>
+        <v>2849481.412773433</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.550634082149818e-07</v>
+        <v>1.465259585815596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.22685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>2420861.330186034</v>
+        <v>2577530.906010617</v>
       </c>
     </row>
     <row r="4">
@@ -29565,28 +29565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1698.245125111701</v>
+        <v>1813.477688123237</v>
       </c>
       <c r="AB4" t="n">
-        <v>2323.613901465069</v>
+        <v>2481.280177879343</v>
       </c>
       <c r="AC4" t="n">
-        <v>2101.851451921836</v>
+        <v>2244.47028020114</v>
       </c>
       <c r="AD4" t="n">
-        <v>1698245.125111701</v>
+        <v>1813477.688123237</v>
       </c>
       <c r="AE4" t="n">
-        <v>2323613.90146507</v>
+        <v>2481280.177879343</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.17048292214143e-07</v>
+        <v>1.585546100123252e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.61805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>2101851.451921836</v>
+        <v>2244470.28020114</v>
       </c>
     </row>
     <row r="5">
@@ -29671,28 +29671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1564.821576341448</v>
+        <v>1679.968798498413</v>
       </c>
       <c r="AB5" t="n">
-        <v>2141.057915806068</v>
+        <v>2298.607425098144</v>
       </c>
       <c r="AC5" t="n">
-        <v>1936.718353315194</v>
+        <v>2079.231558562559</v>
       </c>
       <c r="AD5" t="n">
-        <v>1564821.576341448</v>
+        <v>1679968.798498413</v>
       </c>
       <c r="AE5" t="n">
-        <v>2141057.915806068</v>
+        <v>2298607.425098144</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.498964032163792e-07</v>
+        <v>1.649290428080749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.85995370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>1936718.353315194</v>
+        <v>2079231.558562559</v>
       </c>
     </row>
     <row r="6">
@@ -29777,28 +29777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1475.850613739499</v>
+        <v>1579.47466910386</v>
       </c>
       <c r="AB6" t="n">
-        <v>2019.323919652232</v>
+        <v>2161.106923772429</v>
       </c>
       <c r="AC6" t="n">
-        <v>1826.602478899544</v>
+        <v>1954.853912100205</v>
       </c>
       <c r="AD6" t="n">
-        <v>1475850.613739499</v>
+        <v>1579474.66910386</v>
       </c>
       <c r="AE6" t="n">
-        <v>2019323.919652232</v>
+        <v>2161106.923772429</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.707796036343272e-07</v>
+        <v>1.689815911453391e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.4056712962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>1826602.478899544</v>
+        <v>1954853.912100205</v>
       </c>
     </row>
     <row r="7">
@@ -29883,28 +29883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1404.503241919331</v>
+        <v>1508.127297283693</v>
       </c>
       <c r="AB7" t="n">
-        <v>1921.703297903983</v>
+        <v>2063.486302024179</v>
       </c>
       <c r="AC7" t="n">
-        <v>1738.298632279544</v>
+        <v>1866.550065480205</v>
       </c>
       <c r="AD7" t="n">
-        <v>1404503.241919331</v>
+        <v>1508127.297283693</v>
       </c>
       <c r="AE7" t="n">
-        <v>1921703.297903982</v>
+        <v>2063486.302024179</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.843509142507656e-07</v>
+        <v>1.716152100913065e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1738298.632279544</v>
+        <v>1866550.065480205</v>
       </c>
     </row>
     <row r="8">
@@ -29989,28 +29989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1343.66247507795</v>
+        <v>1458.724356380343</v>
       </c>
       <c r="AB8" t="n">
-        <v>1838.458276606407</v>
+        <v>1995.891018776285</v>
       </c>
       <c r="AC8" t="n">
-        <v>1662.998398979488</v>
+        <v>1805.405981194914</v>
       </c>
       <c r="AD8" t="n">
-        <v>1343662.47507795</v>
+        <v>1458724.356380343</v>
       </c>
       <c r="AE8" t="n">
-        <v>1838458.276606407</v>
+        <v>1995891.018776285</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.921059488887302e-07</v>
+        <v>1.731201352032879e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.96585648148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>1662998.398979488</v>
+        <v>1805405.981194914</v>
       </c>
     </row>
     <row r="9">
@@ -30095,28 +30095,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1339.470275575685</v>
+        <v>1454.532156878077</v>
       </c>
       <c r="AB9" t="n">
-        <v>1832.722324300617</v>
+        <v>1990.155066470496</v>
       </c>
       <c r="AC9" t="n">
-        <v>1657.809877911303</v>
+        <v>1800.21746012673</v>
       </c>
       <c r="AD9" t="n">
-        <v>1339470.275575685</v>
+        <v>1454532.156878077</v>
       </c>
       <c r="AE9" t="n">
-        <v>1832722.324300617</v>
+        <v>1990155.066470496</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.934907765026525e-07</v>
+        <v>1.733888718304274e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.93981481481481</v>
       </c>
       <c r="AH9" t="n">
-        <v>1657809.877911303</v>
+        <v>1800217.46012673</v>
       </c>
     </row>
   </sheetData>
@@ -30392,28 +30392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3985.384224016203</v>
+        <v>4177.002923081602</v>
       </c>
       <c r="AB2" t="n">
-        <v>5452.978518042297</v>
+        <v>5715.159675723968</v>
       </c>
       <c r="AC2" t="n">
-        <v>4932.55390158355</v>
+        <v>5169.71285754964</v>
       </c>
       <c r="AD2" t="n">
-        <v>3985384.224016203</v>
+        <v>4177002.923081602</v>
       </c>
       <c r="AE2" t="n">
-        <v>5452978.518042297</v>
+        <v>5715159.675723968</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.964205917501253e-07</v>
+        <v>9.31479740796786e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.11400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>4932553.90158355</v>
+        <v>5169712.85754964</v>
       </c>
     </row>
     <row r="3">
@@ -30498,28 +30498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2428.91047633896</v>
+        <v>2572.667103933883</v>
       </c>
       <c r="AB3" t="n">
-        <v>3323.342469694683</v>
+        <v>3520.036629664874</v>
       </c>
       <c r="AC3" t="n">
-        <v>3006.167328727348</v>
+        <v>3184.089274131964</v>
       </c>
       <c r="AD3" t="n">
-        <v>2428910.47633896</v>
+        <v>2572667.103933883</v>
       </c>
       <c r="AE3" t="n">
-        <v>3323342.469694683</v>
+        <v>3520036.629664874</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.797225607899026e-07</v>
+        <v>1.275426131108201e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.72280092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>3006167.328727348</v>
+        <v>3184089.274131964</v>
       </c>
     </row>
     <row r="4">
@@ -30604,28 +30604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2068.241248859018</v>
+        <v>2200.011045749818</v>
       </c>
       <c r="AB4" t="n">
-        <v>2829.858921053104</v>
+        <v>3010.152170432427</v>
       </c>
       <c r="AC4" t="n">
-        <v>2559.781157359735</v>
+        <v>2722.867472061348</v>
       </c>
       <c r="AD4" t="n">
-        <v>2068241.248859018</v>
+        <v>2200011.045749818</v>
       </c>
       <c r="AE4" t="n">
-        <v>2829858.921053104</v>
+        <v>3010152.170432427</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.516234787562917e-07</v>
+        <v>1.410340454855865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.54976851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>2559781.157359735</v>
+        <v>2722867.472061348</v>
       </c>
     </row>
     <row r="5">
@@ -30710,28 +30710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1899.889537889248</v>
+        <v>2019.757844930493</v>
       </c>
       <c r="AB5" t="n">
-        <v>2599.512682950959</v>
+        <v>2763.521788861273</v>
       </c>
       <c r="AC5" t="n">
-        <v>2351.418840929084</v>
+        <v>2499.775147959543</v>
       </c>
       <c r="AD5" t="n">
-        <v>1899889.537889248</v>
+        <v>2019757.844930493</v>
       </c>
       <c r="AE5" t="n">
-        <v>2599512.682950959</v>
+        <v>2763521.788861273</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.890418480914356e-07</v>
+        <v>1.480551992307322e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.57465277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>2351418.840929084</v>
+        <v>2499775.147959543</v>
       </c>
     </row>
     <row r="6">
@@ -30816,28 +30816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1786.693058076086</v>
+        <v>1906.476024262759</v>
       </c>
       <c r="AB6" t="n">
-        <v>2444.632265394351</v>
+        <v>2608.524604182467</v>
       </c>
       <c r="AC6" t="n">
-        <v>2211.319993048047</v>
+        <v>2359.570677046568</v>
       </c>
       <c r="AD6" t="n">
-        <v>1786693.058076086</v>
+        <v>1906476.024262759</v>
       </c>
       <c r="AE6" t="n">
-        <v>2444632.265394351</v>
+        <v>2608524.604182467</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.133824706546675e-07</v>
+        <v>1.526224547339938e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.99016203703703</v>
       </c>
       <c r="AH6" t="n">
-        <v>2211319.993048047</v>
+        <v>2359570.677046568</v>
       </c>
     </row>
     <row r="7">
@@ -30922,28 +30922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1714.004266121844</v>
+        <v>1833.787232308517</v>
       </c>
       <c r="AB7" t="n">
-        <v>2345.17625343938</v>
+        <v>2509.068592227496</v>
       </c>
       <c r="AC7" t="n">
-        <v>2121.35592328667</v>
+        <v>2269.60660728519</v>
       </c>
       <c r="AD7" t="n">
-        <v>1714004.266121844</v>
+        <v>1833787.232308517</v>
       </c>
       <c r="AE7" t="n">
-        <v>2345176.25343938</v>
+        <v>2509068.592227496</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.294494166887308e-07</v>
+        <v>1.556372440025942e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.61979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2121355.923286669</v>
+        <v>2269606.60728519</v>
       </c>
     </row>
     <row r="8">
@@ -31028,28 +31028,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1653.939088978793</v>
+        <v>1761.735313969892</v>
       </c>
       <c r="AB8" t="n">
-        <v>2262.992428183662</v>
+        <v>2410.483978850295</v>
       </c>
       <c r="AC8" t="n">
-        <v>2047.015606967634</v>
+        <v>2180.430771044335</v>
       </c>
       <c r="AD8" t="n">
-        <v>1653939.088978793</v>
+        <v>1761735.313969892</v>
       </c>
       <c r="AE8" t="n">
-        <v>2262992.428183662</v>
+        <v>2410483.978850295</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.411393209460724e-07</v>
+        <v>1.578307285535027e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.36226851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>2047015.606967634</v>
+        <v>2180430.771044335</v>
       </c>
     </row>
     <row r="9">
@@ -31134,28 +31134,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1598.308161013906</v>
+        <v>1706.104386005006</v>
       </c>
       <c r="AB9" t="n">
-        <v>2186.875738278776</v>
+        <v>2334.36728894541</v>
       </c>
       <c r="AC9" t="n">
-        <v>1978.163387116825</v>
+        <v>2111.578551193526</v>
       </c>
       <c r="AD9" t="n">
-        <v>1598308.161013906</v>
+        <v>1706104.386005006</v>
       </c>
       <c r="AE9" t="n">
-        <v>2186875.738278776</v>
+        <v>2334367.288945409</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.508008399898114e-07</v>
+        <v>1.596436084791395e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.15393518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>1978163.387116825</v>
+        <v>2111578.551193526</v>
       </c>
     </row>
     <row r="10">
@@ -31240,28 +31240,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1546.514368150066</v>
+        <v>1654.310593141166</v>
       </c>
       <c r="AB10" t="n">
-        <v>2116.009185901595</v>
+        <v>2263.500736568228</v>
       </c>
       <c r="AC10" t="n">
-        <v>1914.060239036691</v>
+        <v>2047.475403113392</v>
       </c>
       <c r="AD10" t="n">
-        <v>1546514.368150066</v>
+        <v>1654310.593141166</v>
       </c>
       <c r="AE10" t="n">
-        <v>2116009.185901595</v>
+        <v>2263500.736568228</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.577934311209152e-07</v>
+        <v>1.609556928452081e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.00636574074074</v>
       </c>
       <c r="AH10" t="n">
-        <v>1914060.239036691</v>
+        <v>2047475.403113392</v>
       </c>
     </row>
     <row r="11">
@@ -31346,28 +31346,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1500.703098786422</v>
+        <v>1620.400724118523</v>
       </c>
       <c r="AB11" t="n">
-        <v>2053.328186107691</v>
+        <v>2217.10375777361</v>
       </c>
       <c r="AC11" t="n">
-        <v>1857.361425889782</v>
+        <v>2005.506486856364</v>
       </c>
       <c r="AD11" t="n">
-        <v>1500703.098786422</v>
+        <v>1620400.724118523</v>
       </c>
       <c r="AE11" t="n">
-        <v>2053328.186107691</v>
+        <v>2217103.75777361</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.619035801063734e-07</v>
+        <v>1.617269180069431e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.91956018518519</v>
       </c>
       <c r="AH11" t="n">
-        <v>1857361.425889782</v>
+        <v>2005506.486856364</v>
       </c>
     </row>
     <row r="12">
@@ -31452,28 +31452,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1492.218100864061</v>
+        <v>1611.915726196162</v>
       </c>
       <c r="AB12" t="n">
-        <v>2041.718637618627</v>
+        <v>2205.494209284546</v>
       </c>
       <c r="AC12" t="n">
-        <v>1846.859876414411</v>
+        <v>1995.004937380992</v>
       </c>
       <c r="AD12" t="n">
-        <v>1492218.100864061</v>
+        <v>1611915.726196162</v>
       </c>
       <c r="AE12" t="n">
-        <v>2041718.637618627</v>
+        <v>2205494.209284546</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.631846655044382e-07</v>
+        <v>1.619672998755358e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.89351851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>1846859.876414411</v>
+        <v>1995004.937380992</v>
       </c>
     </row>
     <row r="13">
@@ -31558,28 +31558,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1493.890569873943</v>
+        <v>1613.588195206044</v>
       </c>
       <c r="AB13" t="n">
-        <v>2044.006983502074</v>
+        <v>2207.782555167993</v>
       </c>
       <c r="AC13" t="n">
-        <v>1848.929825778455</v>
+        <v>1997.074886745036</v>
       </c>
       <c r="AD13" t="n">
-        <v>1493890.569873943</v>
+        <v>1613588.195206044</v>
       </c>
       <c r="AE13" t="n">
-        <v>2044006.983502074</v>
+        <v>2207782.555167993</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.639853438782287e-07</v>
+        <v>1.621175385434062e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.87615740740741</v>
       </c>
       <c r="AH13" t="n">
-        <v>1848929.825778455</v>
+        <v>1997074.886745036</v>
       </c>
     </row>
   </sheetData>
@@ -31855,28 +31855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>780.7500090045854</v>
+        <v>881.3415393995605</v>
       </c>
       <c r="AB2" t="n">
-        <v>1068.256606579518</v>
+        <v>1205.89037625104</v>
       </c>
       <c r="AC2" t="n">
-        <v>966.3036953551317</v>
+        <v>1090.801891219413</v>
       </c>
       <c r="AD2" t="n">
-        <v>780750.0090045854</v>
+        <v>881341.5393995604</v>
       </c>
       <c r="AE2" t="n">
-        <v>1068256.606579518</v>
+        <v>1205890.37625104</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.334184516087755e-07</v>
+        <v>2.334408710784407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.26157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>966303.6953551318</v>
+        <v>1090801.891219413</v>
       </c>
     </row>
   </sheetData>
@@ -32152,28 +32152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1889.03587860433</v>
+        <v>2018.632650095853</v>
       </c>
       <c r="AB2" t="n">
-        <v>2584.662227487681</v>
+        <v>2761.982247648426</v>
       </c>
       <c r="AC2" t="n">
-        <v>2337.985692092475</v>
+        <v>2498.382538399291</v>
       </c>
       <c r="AD2" t="n">
-        <v>1889035.87860433</v>
+        <v>2018632.650095853</v>
       </c>
       <c r="AE2" t="n">
-        <v>2584662.227487681</v>
+        <v>2761982.247648426</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.328500620987432e-07</v>
+        <v>1.509146010161546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.21180555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2337985.692092475</v>
+        <v>2498382.538399291</v>
       </c>
     </row>
     <row r="3">
@@ -32258,28 +32258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1386.36336354024</v>
+        <v>1494.502833283669</v>
       </c>
       <c r="AB3" t="n">
-        <v>1896.883516030756</v>
+        <v>2044.844709310416</v>
       </c>
       <c r="AC3" t="n">
-        <v>1715.847615553515</v>
+        <v>1849.687600211404</v>
       </c>
       <c r="AD3" t="n">
-        <v>1386363.36354024</v>
+        <v>1494502.833283669</v>
       </c>
       <c r="AE3" t="n">
-        <v>1896883.516030756</v>
+        <v>2044844.709310416</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.704137670009619e-07</v>
+        <v>1.792428672104271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.54282407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>1715847.615553515</v>
+        <v>1849687.600211404</v>
       </c>
     </row>
     <row r="4">
@@ -32364,28 +32364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1214.770399140146</v>
+        <v>1322.824528029003</v>
       </c>
       <c r="AB4" t="n">
-        <v>1662.102451991232</v>
+        <v>1809.946878148695</v>
       </c>
       <c r="AC4" t="n">
-        <v>1503.473726748631</v>
+        <v>1637.208088374581</v>
       </c>
       <c r="AD4" t="n">
-        <v>1214770.399140146</v>
+        <v>1322824.528029003</v>
       </c>
       <c r="AE4" t="n">
-        <v>1662102.451991232</v>
+        <v>1809946.878148695</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.192665186136731e-07</v>
+        <v>1.893030335383931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.50405092592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>1503473.726748631</v>
+        <v>1637208.088374581</v>
       </c>
     </row>
     <row r="5">
@@ -32470,28 +32470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1153.203929662123</v>
+        <v>1250.444201085188</v>
       </c>
       <c r="AB5" t="n">
-        <v>1577.864492330462</v>
+        <v>1710.912921629507</v>
       </c>
       <c r="AC5" t="n">
-        <v>1427.275319729166</v>
+        <v>1547.625793670553</v>
       </c>
       <c r="AD5" t="n">
-        <v>1153203.929662123</v>
+        <v>1250444.201085188</v>
       </c>
       <c r="AE5" t="n">
-        <v>1577864.492330462</v>
+        <v>1710912.921629507</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.35668344967399e-07</v>
+        <v>1.926806345077102e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.17997685185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1427275.319729166</v>
+        <v>1547625.793670553</v>
       </c>
     </row>
     <row r="6">
@@ -32576,28 +32576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1155.818294055889</v>
+        <v>1253.058565478955</v>
       </c>
       <c r="AB6" t="n">
-        <v>1581.44158103163</v>
+        <v>1714.490010330675</v>
       </c>
       <c r="AC6" t="n">
-        <v>1430.51101610517</v>
+        <v>1550.861490046557</v>
       </c>
       <c r="AD6" t="n">
-        <v>1155818.294055889</v>
+        <v>1253058.565478955</v>
       </c>
       <c r="AE6" t="n">
-        <v>1581441.58103163</v>
+        <v>1714490.010330675</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.363150119562557e-07</v>
+        <v>1.928138015710167e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.16840277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1430511.01610517</v>
+        <v>1550861.490046557</v>
       </c>
     </row>
   </sheetData>
@@ -32873,28 +32873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2478.679845467586</v>
+        <v>2625.076840741643</v>
       </c>
       <c r="AB2" t="n">
-        <v>3391.439116206077</v>
+        <v>3591.74594371966</v>
       </c>
       <c r="AC2" t="n">
-        <v>3067.764926869935</v>
+        <v>3248.954751898013</v>
       </c>
       <c r="AD2" t="n">
-        <v>2478679.845467587</v>
+        <v>2625076.840741643</v>
       </c>
       <c r="AE2" t="n">
-        <v>3391439.116206077</v>
+        <v>3591745.94371966</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.412797518634672e-07</v>
+        <v>1.270493255599935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.53819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>3067764.926869935</v>
+        <v>3248954.751898014</v>
       </c>
     </row>
     <row r="3">
@@ -32979,28 +32979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1727.340081079893</v>
+        <v>1851.129120841831</v>
       </c>
       <c r="AB3" t="n">
-        <v>2363.422903799617</v>
+        <v>2532.796529188903</v>
       </c>
       <c r="AC3" t="n">
-        <v>2137.86113894586</v>
+        <v>2291.069983245369</v>
       </c>
       <c r="AD3" t="n">
-        <v>1727340.081079893</v>
+        <v>1851129.120841831</v>
       </c>
       <c r="AE3" t="n">
-        <v>2363422.903799617</v>
+        <v>2532796.529188903</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.969867772276682e-07</v>
+        <v>1.578977540344456e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.54976851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>2137861.13894586</v>
+        <v>2291069.983245369</v>
       </c>
     </row>
     <row r="4">
@@ -33085,28 +33085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1518.150278603089</v>
+        <v>1630.592759690233</v>
       </c>
       <c r="AB4" t="n">
-        <v>2077.200187248106</v>
+        <v>2231.048950483699</v>
       </c>
       <c r="AC4" t="n">
-        <v>1878.955116745919</v>
+        <v>2018.120769946402</v>
       </c>
       <c r="AD4" t="n">
-        <v>1518150.27860309</v>
+        <v>1630592.759690233</v>
       </c>
       <c r="AE4" t="n">
-        <v>2077200.187248106</v>
+        <v>2231048.950483699</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.541529333955503e-07</v>
+        <v>1.69223422067596e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.17245370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>1878955.116745919</v>
+        <v>2018120.769946402</v>
       </c>
     </row>
     <row r="5">
@@ -33191,28 +33191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1391.344039236929</v>
+        <v>1503.871771670093</v>
       </c>
       <c r="AB5" t="n">
-        <v>1903.69829625087</v>
+        <v>2057.663704139111</v>
       </c>
       <c r="AC5" t="n">
-        <v>1722.012002714026</v>
+        <v>1861.283168165221</v>
       </c>
       <c r="AD5" t="n">
-        <v>1391344.039236929</v>
+        <v>1503871.771670093</v>
       </c>
       <c r="AE5" t="n">
-        <v>1903698.29625087</v>
+        <v>2057663.704139112</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.850566178189795e-07</v>
+        <v>1.753460109251208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.50405092592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>1722012.002714026</v>
+        <v>1861283.168165221</v>
       </c>
     </row>
     <row r="6">
@@ -33297,28 +33297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1308.835994966566</v>
+        <v>1410.102509579508</v>
       </c>
       <c r="AB6" t="n">
-        <v>1790.807150082145</v>
+        <v>1929.364462938891</v>
       </c>
       <c r="AC6" t="n">
-        <v>1619.895029091925</v>
+        <v>1745.228626476033</v>
       </c>
       <c r="AD6" t="n">
-        <v>1308835.994966566</v>
+        <v>1410102.509579508</v>
       </c>
       <c r="AE6" t="n">
-        <v>1790807.150082144</v>
+        <v>1929364.462938891</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.031686672979123e-07</v>
+        <v>1.789343413910694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.13368055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1619895.029091925</v>
+        <v>1745228.626476033</v>
       </c>
     </row>
     <row r="7">
@@ -33403,28 +33403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1274.378679614189</v>
+        <v>1375.64519422713</v>
       </c>
       <c r="AB7" t="n">
-        <v>1743.661131067555</v>
+        <v>1882.218443924302</v>
       </c>
       <c r="AC7" t="n">
-        <v>1577.248559962235</v>
+        <v>1702.582157346343</v>
       </c>
       <c r="AD7" t="n">
-        <v>1274378.679614189</v>
+        <v>1375645.19422713</v>
       </c>
       <c r="AE7" t="n">
-        <v>1743661.131067555</v>
+        <v>1882218.443924302</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.097908853886471e-07</v>
+        <v>1.802463247176819e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.00057870370371</v>
       </c>
       <c r="AH7" t="n">
-        <v>1577248.559962235</v>
+        <v>1702582.157346343</v>
       </c>
     </row>
     <row r="8">
@@ -33509,28 +33509,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1281.045387066112</v>
+        <v>1382.311901679053</v>
       </c>
       <c r="AB8" t="n">
-        <v>1752.782814317652</v>
+        <v>1891.340127174397</v>
       </c>
       <c r="AC8" t="n">
-        <v>1585.499682565304</v>
+        <v>1710.833279949413</v>
       </c>
       <c r="AD8" t="n">
-        <v>1281045.387066112</v>
+        <v>1382311.901679053</v>
       </c>
       <c r="AE8" t="n">
-        <v>1752782.814317652</v>
+        <v>1891340.127174397</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.096210849247821e-07</v>
+        <v>1.802126841195636e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.00347222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1585499.682565304</v>
+        <v>1710833.279949413</v>
       </c>
     </row>
   </sheetData>
